--- a/Images_and_Data/Data/World_population_estimates_clean.xlsx
+++ b/Images_and_Data/Data/World_population_estimates_clean.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4AA52ECD-6C60-4CC2-9D0F-022885A5B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D94C3E-E055-4BA1-A027-8CC8A26752E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1605" windowWidth="16305" windowHeight="13995"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16305" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World_population_estimates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,16 +38,16 @@
     <t>Year</t>
   </si>
   <si>
-    <t>U_S_census</t>
+    <t>UN</t>
   </si>
   <si>
-    <t>UN</t>
+    <t>US_census</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,11 +881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,10 +906,10 @@
         <v>1950</v>
       </c>
       <c r="B2">
-        <v>2557628654</v>
+        <v>2.5576286540000002</v>
       </c>
       <c r="C2">
-        <v>2525149000</v>
+        <v>2.5251489999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,10 +917,10 @@
         <v>1951</v>
       </c>
       <c r="B3">
-        <v>2594939877</v>
+        <v>2.5949398769999998</v>
       </c>
       <c r="C3">
-        <v>2572850917</v>
+        <v>2.5728509169999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,10 +928,10 @@
         <v>1952</v>
       </c>
       <c r="B4">
-        <v>2636772306</v>
+        <v>2.6367723060000001</v>
       </c>
       <c r="C4">
-        <v>2619292068</v>
+        <v>2.619292068</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,10 +939,10 @@
         <v>1953</v>
       </c>
       <c r="B5">
-        <v>2682053389</v>
+        <v>2.682053389</v>
       </c>
       <c r="C5">
-        <v>2665865392</v>
+        <v>2.6658653920000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,10 +950,10 @@
         <v>1954</v>
       </c>
       <c r="B6">
-        <v>2730228104</v>
+        <v>2.730228104</v>
       </c>
       <c r="C6">
-        <v>2713172027</v>
+        <v>2.7131720270000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,10 +961,10 @@
         <v>1955</v>
       </c>
       <c r="B7">
-        <v>2782098943</v>
+        <v>2.7820989429999998</v>
       </c>
       <c r="C7">
-        <v>2761650981</v>
+        <v>2.7616509809999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,10 +972,10 @@
         <v>1956</v>
       </c>
       <c r="B8">
-        <v>2835299673</v>
+        <v>2.8352996730000002</v>
       </c>
       <c r="C8">
-        <v>2811572031</v>
+        <v>2.8115720309999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,10 +983,10 @@
         <v>1957</v>
       </c>
       <c r="B9">
-        <v>2891349717</v>
+        <v>2.8913497170000002</v>
       </c>
       <c r="C9">
-        <v>2863042795</v>
+        <v>2.8630427950000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,10 +994,10 @@
         <v>1958</v>
       </c>
       <c r="B10">
-        <v>2948137248</v>
+        <v>2.9481372480000001</v>
       </c>
       <c r="C10">
-        <v>2916030167</v>
+        <v>2.9160301670000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,10 +1005,10 @@
         <v>1959</v>
       </c>
       <c r="B11">
-        <v>3000716593</v>
+        <v>3.0007165929999999</v>
       </c>
       <c r="C11">
-        <v>2970395814</v>
+        <v>2.9703958140000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,10 +1016,10 @@
         <v>1960</v>
       </c>
       <c r="B12">
-        <v>3043001508</v>
+        <v>3.0430015080000001</v>
       </c>
       <c r="C12">
-        <v>3026002942</v>
+        <v>3.0260029419999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,10 +1027,10 @@
         <v>1961</v>
       </c>
       <c r="B13">
-        <v>3083966929</v>
+        <v>3.0839669289999998</v>
       </c>
       <c r="C13">
-        <v>3082830266</v>
+        <v>3.0828302660000002</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,10 +1038,10 @@
         <v>1962</v>
       </c>
       <c r="B14">
-        <v>3140093217</v>
+        <v>3.140093217</v>
       </c>
       <c r="C14">
-        <v>3141071531</v>
+        <v>3.1410715310000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1036,10 +1049,10 @@
         <v>1963</v>
       </c>
       <c r="B15">
-        <v>3209827882</v>
+        <v>3.2098278819999999</v>
       </c>
       <c r="C15">
-        <v>3201178277</v>
+        <v>3.2011782769999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1047,10 +1060,10 @@
         <v>1964</v>
       </c>
       <c r="B16">
-        <v>3281201306</v>
+        <v>3.2812013059999998</v>
       </c>
       <c r="C16">
-        <v>3263738832</v>
+        <v>3.263738832</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1058,10 +1071,10 @@
         <v>1965</v>
       </c>
       <c r="B17">
-        <v>3350425793</v>
+        <v>3.3504257929999999</v>
       </c>
       <c r="C17">
-        <v>3329122479</v>
+        <v>3.329122479</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,10 +1082,10 @@
         <v>1966</v>
       </c>
       <c r="B18">
-        <v>3420677923</v>
+        <v>3.420677923</v>
       </c>
       <c r="C18">
-        <v>3397475247</v>
+        <v>3.397475247</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1080,10 +1093,10 @@
         <v>1967</v>
       </c>
       <c r="B19">
-        <v>3490333715</v>
+        <v>3.4903337149999998</v>
       </c>
       <c r="C19">
-        <v>3468521724</v>
+        <v>3.4685217239999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,10 +1104,10 @@
         <v>1968</v>
       </c>
       <c r="B20">
-        <v>3562313822</v>
+        <v>3.5623138220000001</v>
       </c>
       <c r="C20">
-        <v>3541674891</v>
+        <v>3.541674891</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,10 +1115,10 @@
         <v>1969</v>
       </c>
       <c r="B21">
-        <v>3637159050</v>
+        <v>3.6371590500000002</v>
       </c>
       <c r="C21">
-        <v>3616108749</v>
+        <v>3.6161087489999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,10 +1126,10 @@
         <v>1970</v>
       </c>
       <c r="B22">
-        <v>3712697742</v>
+        <v>3.712697742</v>
       </c>
       <c r="C22">
-        <v>3691172616</v>
+        <v>3.6911726159999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,10 +1137,10 @@
         <v>1971</v>
       </c>
       <c r="B23">
-        <v>3790326948</v>
+        <v>3.7903269480000001</v>
       </c>
       <c r="C23">
-        <v>3766754345</v>
+        <v>3.7667543449999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,10 +1148,10 @@
         <v>1972</v>
       </c>
       <c r="B24">
-        <v>3866568653</v>
+        <v>3.8665686529999999</v>
       </c>
       <c r="C24">
-        <v>3842873611</v>
+        <v>3.8428736109999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,10 +1159,10 @@
         <v>1973</v>
       </c>
       <c r="B25">
-        <v>3942096442</v>
+        <v>3.942096442</v>
       </c>
       <c r="C25">
-        <v>3919182332</v>
+        <v>3.9191823320000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,10 +1170,10 @@
         <v>1974</v>
       </c>
       <c r="B26">
-        <v>4016608813</v>
+        <v>4.0166088130000004</v>
       </c>
       <c r="C26">
-        <v>3995304922</v>
+        <v>3.9953049219999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,10 +1181,10 @@
         <v>1975</v>
       </c>
       <c r="B27">
-        <v>4089083233</v>
+        <v>4.0890832330000002</v>
       </c>
       <c r="C27">
-        <v>4071020434</v>
+        <v>4.0710204340000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,10 +1192,10 @@
         <v>1976</v>
       </c>
       <c r="B28">
-        <v>4160185010</v>
+        <v>4.1601850100000002</v>
       </c>
       <c r="C28">
-        <v>4146135850</v>
+        <v>4.1461358500000003</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,10 +1203,10 @@
         <v>1977</v>
       </c>
       <c r="B29">
-        <v>4232084578</v>
+        <v>4.2320845780000003</v>
       </c>
       <c r="C29">
-        <v>4220816737</v>
+        <v>4.2208167369999998</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,10 +1214,10 @@
         <v>1978</v>
       </c>
       <c r="B30">
-        <v>4304105753</v>
+        <v>4.304105753</v>
       </c>
       <c r="C30">
-        <v>4295664825</v>
+        <v>4.2956648250000002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,10 +1225,10 @@
         <v>1979</v>
       </c>
       <c r="B31">
-        <v>4379013942</v>
+        <v>4.3790139420000003</v>
       </c>
       <c r="C31">
-        <v>4371527871</v>
+        <v>4.3715278709999996</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,10 +1236,10 @@
         <v>1980</v>
       </c>
       <c r="B32">
-        <v>4451362735</v>
+        <v>4.451362735</v>
       </c>
       <c r="C32">
-        <v>4449048798</v>
+        <v>4.4490487979999997</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,10 +1247,10 @@
         <v>1981</v>
       </c>
       <c r="B33">
-        <v>4534410125</v>
+        <v>4.534410125</v>
       </c>
       <c r="C33">
-        <v>4528234634</v>
+        <v>4.5282346340000004</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,10 +1258,10 @@
         <v>1982</v>
       </c>
       <c r="B34">
-        <v>4614566561</v>
+        <v>4.6145665610000002</v>
       </c>
       <c r="C34">
-        <v>4608962418</v>
+        <v>4.6089624179999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,10 +1269,10 @@
         <v>1983</v>
       </c>
       <c r="B35">
-        <v>4695736743</v>
+        <v>4.6957367430000003</v>
       </c>
       <c r="C35">
-        <v>4691559840</v>
+        <v>4.69155984</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,10 +1280,10 @@
         <v>1984</v>
       </c>
       <c r="B36">
-        <v>4774569391</v>
+        <v>4.774569391</v>
       </c>
       <c r="C36">
-        <v>4776392828</v>
+        <v>4.7763928279999996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,10 +1291,10 @@
         <v>1985</v>
       </c>
       <c r="B37">
-        <v>4856462699</v>
+        <v>4.8564626989999997</v>
       </c>
       <c r="C37">
-        <v>4863601517</v>
+        <v>4.8636015170000002</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,10 +1302,10 @@
         <v>1986</v>
       </c>
       <c r="B38">
-        <v>4940571232</v>
+        <v>4.9405712319999999</v>
       </c>
       <c r="C38">
-        <v>4953376710</v>
+        <v>4.9533767099999997</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,10 +1313,10 @@
         <v>1987</v>
       </c>
       <c r="B39">
-        <v>5027200492</v>
+        <v>5.0272004920000004</v>
       </c>
       <c r="C39">
-        <v>5045315871</v>
+        <v>5.0453158709999997</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,10 +1324,10 @@
         <v>1988</v>
       </c>
       <c r="B40">
-        <v>5114557167</v>
+        <v>5.1145571670000001</v>
       </c>
       <c r="C40">
-        <v>5138214688</v>
+        <v>5.1382146879999997</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,10 +1335,10 @@
         <v>1989</v>
       </c>
       <c r="B41">
-        <v>5201440110</v>
+        <v>5.2014401100000001</v>
       </c>
       <c r="C41">
-        <v>5230000000</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,10 +1346,10 @@
         <v>1990</v>
       </c>
       <c r="B42">
-        <v>5288955934</v>
+        <v>5.2889559339999996</v>
       </c>
       <c r="C42">
-        <v>5320816667</v>
+        <v>5.3208166669999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,10 +1357,10 @@
         <v>1991</v>
       </c>
       <c r="B43">
-        <v>5371585922</v>
+        <v>5.3715859220000004</v>
       </c>
       <c r="C43">
-        <v>5408908724</v>
+        <v>5.4089087239999998</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,10 +1368,10 @@
         <v>1992</v>
       </c>
       <c r="B44">
-        <v>5456136278</v>
+        <v>5.4561362779999998</v>
       </c>
       <c r="C44">
-        <v>5494899570</v>
+        <v>5.4948995700000003</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,10 +1379,10 @@
         <v>1993</v>
       </c>
       <c r="B45">
-        <v>5538268316</v>
+        <v>5.5382683159999999</v>
       </c>
       <c r="C45">
-        <v>5578865109</v>
+        <v>5.5788651089999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,10 +1390,10 @@
         <v>1994</v>
       </c>
       <c r="B46">
-        <v>5618682132</v>
+        <v>5.618682132</v>
       </c>
       <c r="C46">
-        <v>5661086346</v>
+        <v>5.6610863460000003</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,10 +1401,10 @@
         <v>1995</v>
       </c>
       <c r="B47">
-        <v>5699202985</v>
+        <v>5.6992029850000003</v>
       </c>
       <c r="C47">
-        <v>5741822412</v>
+        <v>5.7418224120000003</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,10 +1412,10 @@
         <v>1996</v>
       </c>
       <c r="B48">
-        <v>5779440593</v>
+        <v>5.7794405930000003</v>
       </c>
       <c r="C48">
-        <v>5821016750</v>
+        <v>5.8210167500000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1410,10 +1423,10 @@
         <v>1997</v>
       </c>
       <c r="B49">
-        <v>5857972543</v>
+        <v>5.8579725429999998</v>
       </c>
       <c r="C49">
-        <v>5898688337</v>
+        <v>5.8986883370000003</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,10 +1434,10 @@
         <v>1998</v>
       </c>
       <c r="B50">
-        <v>5935213248</v>
+        <v>5.9352132480000002</v>
       </c>
       <c r="C50">
-        <v>5975303657</v>
+        <v>5.9753036570000004</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1432,10 +1445,10 @@
         <v>1999</v>
       </c>
       <c r="B51">
-        <v>6012074922</v>
+        <v>6.012074922</v>
       </c>
       <c r="C51">
-        <v>6051478010</v>
+        <v>6.0514780100000003</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,10 +1456,10 @@
         <v>2000</v>
       </c>
       <c r="B52">
-        <v>6088571383</v>
+        <v>6.0885713829999997</v>
       </c>
       <c r="C52">
-        <v>6127700428</v>
+        <v>6.1277004279999998</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1454,10 +1467,10 @@
         <v>2001</v>
       </c>
       <c r="B53">
-        <v>6165219247</v>
+        <v>6.1652192469999996</v>
       </c>
       <c r="C53">
-        <v>6204147026</v>
+        <v>6.2041470260000002</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,10 +1478,10 @@
         <v>2002</v>
       </c>
       <c r="B54">
-        <v>6242016348</v>
+        <v>6.2420163479999999</v>
       </c>
       <c r="C54">
-        <v>6280853817</v>
+        <v>6.2808538169999997</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,10 +1489,10 @@
         <v>2003</v>
       </c>
       <c r="B55">
-        <v>6318590956</v>
+        <v>6.3185909560000004</v>
       </c>
       <c r="C55">
-        <v>6357991749</v>
+        <v>6.357991749</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,10 +1500,10 @@
         <v>2004</v>
       </c>
       <c r="B56">
-        <v>6395699509</v>
+        <v>6.3956995089999999</v>
       </c>
       <c r="C56">
-        <v>6435705595</v>
+        <v>6.4357055949999999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,10 +1511,10 @@
         <v>2005</v>
       </c>
       <c r="B57">
-        <v>6473044732</v>
+        <v>6.473044732</v>
       </c>
       <c r="C57">
-        <v>6514094605</v>
+        <v>6.5140946050000004</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1509,10 +1522,10 @@
         <v>2006</v>
       </c>
       <c r="B58">
-        <v>6551263534</v>
+        <v>6.5512635340000003</v>
       </c>
       <c r="C58">
-        <v>6593227977</v>
+        <v>6.5932279769999997</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,10 +1533,10 @@
         <v>2007</v>
       </c>
       <c r="B59">
-        <v>6629913759</v>
+        <v>6.6299137589999999</v>
       </c>
       <c r="C59">
-        <v>6673105937</v>
+        <v>6.6731059369999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,10 +1544,10 @@
         <v>2008</v>
       </c>
       <c r="B60">
-        <v>6709049780</v>
+        <v>6.70904978</v>
       </c>
       <c r="C60">
-        <v>6753649228</v>
+        <v>6.7536492279999996</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1542,10 +1555,10 @@
         <v>2009</v>
       </c>
       <c r="B61">
-        <v>6788214394</v>
+        <v>6.7882143939999997</v>
       </c>
       <c r="C61">
-        <v>6834721933</v>
+        <v>6.834721933</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1553,10 +1566,10 @@
         <v>2010</v>
       </c>
       <c r="B62">
-        <v>6858584755</v>
+        <v>6.8585847549999999</v>
       </c>
       <c r="C62">
-        <v>6916183482</v>
+        <v>6.9161834820000001</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,10 +1577,10 @@
         <v>2011</v>
       </c>
       <c r="B63">
-        <v>6935999491</v>
+        <v>6.9359994909999996</v>
       </c>
       <c r="C63">
-        <v>6997998760</v>
+        <v>6.9979987599999998</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,10 +1588,10 @@
         <v>2012</v>
       </c>
       <c r="B64">
-        <v>7013871313</v>
+        <v>7.0138713130000001</v>
       </c>
       <c r="C64">
-        <v>7080072417</v>
+        <v>7.0800724170000002</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,10 +1599,10 @@
         <v>2013</v>
       </c>
       <c r="B65">
-        <v>7092128094</v>
+        <v>7.0921280940000004</v>
       </c>
       <c r="C65">
-        <v>7162119434</v>
+        <v>7.1621194340000001</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,10 +1610,10 @@
         <v>2014</v>
       </c>
       <c r="B66">
-        <v>7169968185</v>
+        <v>7.1699681850000001</v>
       </c>
       <c r="C66">
-        <v>7243784000</v>
+        <v>7.2437839999999998</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,10 +1621,10 @@
         <v>2015</v>
       </c>
       <c r="B67">
-        <v>7247892788</v>
+        <v>7.2478927879999997</v>
       </c>
       <c r="C67">
-        <v>7349472000</v>
+        <v>7.3494719999999996</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,7 +1632,10 @@
         <v>2016</v>
       </c>
       <c r="B68">
-        <v>7325996709</v>
+        <v>7.325996709</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
